--- a/TestData/TMTT0005221_StartButtonFunctionalities.xlsx
+++ b/TestData/TMTT0005221_StartButtonFunctionalities.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngoyal0630\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vijay.kumar\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC8E1E8-0031-4885-8B32-31DA6A73E440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="5760" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="8" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Yuka Itami</t>
   </si>
@@ -71,12 +72,15 @@
   </si>
   <si>
     <t>Summary log</t>
+  </si>
+  <si>
+    <t>GE Healthcare-GE Healthcare Bio-Sciences AB-FVA-101397</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,49 +466,49 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - Accent1 2" xfId="2"/>
-    <cellStyle name="20% - Accent2 2" xfId="7"/>
-    <cellStyle name="20% - Accent3 2" xfId="3"/>
-    <cellStyle name="20% - Accent4 2" xfId="4"/>
-    <cellStyle name="20% - Accent5 2" xfId="5"/>
-    <cellStyle name="20% - Accent6 2" xfId="6"/>
-    <cellStyle name="40% - Accent1 2" xfId="9"/>
-    <cellStyle name="40% - Accent2 2" xfId="7"/>
-    <cellStyle name="40% - Accent3 2" xfId="8"/>
-    <cellStyle name="40% - Accent4 2" xfId="10"/>
-    <cellStyle name="40% - Accent5 2" xfId="9"/>
-    <cellStyle name="40% - Accent6 2" xfId="10"/>
-    <cellStyle name="60% - Accent1 2" xfId="11"/>
-    <cellStyle name="60% - Accent2 2" xfId="12"/>
-    <cellStyle name="60% - Accent3 2" xfId="13"/>
-    <cellStyle name="60% - Accent4 2" xfId="14"/>
-    <cellStyle name="60% - Accent5 2" xfId="15"/>
-    <cellStyle name="60% - Accent6 2" xfId="20"/>
-    <cellStyle name="Accent1 2" xfId="15"/>
-    <cellStyle name="Accent2 2" xfId="16"/>
-    <cellStyle name="Accent3 2" xfId="17"/>
-    <cellStyle name="Accent4 2" xfId="18"/>
-    <cellStyle name="Accent5 2" xfId="19"/>
-    <cellStyle name="Accent6 2" xfId="20"/>
-    <cellStyle name="Bad 2" xfId="21"/>
-    <cellStyle name="Calculation 2" xfId="22"/>
-    <cellStyle name="Check Cell 2" xfId="23"/>
-    <cellStyle name="Explanatory Text 2" xfId="24"/>
-    <cellStyle name="Good 2" xfId="25"/>
-    <cellStyle name="Heading 1 2" xfId="26"/>
-    <cellStyle name="Heading 2 2" xfId="27"/>
-    <cellStyle name="Heading 3 2" xfId="28"/>
-    <cellStyle name="Heading 4 2" xfId="29"/>
-    <cellStyle name="Input 2" xfId="30"/>
-    <cellStyle name="Linked Cell 2" xfId="31"/>
-    <cellStyle name="Neutral 2" xfId="32"/>
+    <cellStyle name="20% - Accent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calculation 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Check Cell 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="24" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Good 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Heading 1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Heading 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Heading 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Heading 4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Input 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Neutral 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Note 2" xfId="33"/>
-    <cellStyle name="Output 2" xfId="34"/>
-    <cellStyle name="Title 2" xfId="35"/>
-    <cellStyle name="Total 2" xfId="36"/>
-    <cellStyle name="Warning Text 2" xfId="37"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Note 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Output 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Title 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Total 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Warning Text 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -781,21 +785,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -806,21 +810,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -832,50 +836,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -883,7 +893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -897,16 +907,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -914,7 +924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -928,24 +938,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
